--- a/hw2/desc.xlsx
+++ b/hw2/desc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,464 +436,476 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NEWID</t>
+          <t>count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FAM_SIZE</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NUM_AUTO</t>
+          <t>std</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FINCBTXM</t>
+          <t>min</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>TOTEXP</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ALCBEV</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FOOD</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FDHOME</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>FDMAP</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>FDAWAY</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MAJAPP</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TENTRM</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EDUCA</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ELCTRC</t>
+          <t>max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>NEWID</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>20263</v>
       </c>
       <c r="C2" t="n">
-        <v>20263</v>
+        <v>4657269.115382717</v>
       </c>
       <c r="D2" t="n">
-        <v>20263</v>
+        <v>143771.9890751128</v>
       </c>
       <c r="E2" t="n">
-        <v>20263</v>
+        <v>4378034</v>
       </c>
       <c r="F2" t="n">
-        <v>20263</v>
+        <v>4556912.5</v>
       </c>
       <c r="G2" t="n">
-        <v>20263</v>
+        <v>4659354</v>
       </c>
       <c r="H2" t="n">
-        <v>20263</v>
+        <v>4760502</v>
       </c>
       <c r="I2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20263</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20263</v>
+        <v>4930511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>FAM_SIZE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4657269.115382717</v>
+        <v>20263</v>
       </c>
       <c r="C3" t="n">
         <v>2.388343285791837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7040912007106549</v>
+        <v>1.449664216003892</v>
       </c>
       <c r="E3" t="n">
-        <v>87625.47016730001</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>63572.33874569413</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>536.9443813847901</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>9467.443715145831</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6595.57262004639</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22.40793564625179</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2871.871095099442</v>
-      </c>
-      <c r="L3" t="n">
-        <v>443.0933228051128</v>
-      </c>
-      <c r="M3" t="n">
-        <v>122.4426787741203</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1059.478458273701</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1525.735774564477</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>std</t>
+          <t>NUM_AUTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143771.9890751128</v>
+        <v>20263</v>
       </c>
       <c r="C4" t="n">
-        <v>1.449664216003892</v>
+        <v>0.7040912007106549</v>
       </c>
       <c r="D4" t="n">
         <v>0.7936840689567967</v>
       </c>
       <c r="E4" t="n">
-        <v>86504.37343883088</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61730.6804087351</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1200.868493836269</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6840.518063324567</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>4621.348942987547</v>
-      </c>
-      <c r="J4" t="n">
-        <v>336.9270680369743</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3779.830252419928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2240.880011704004</v>
-      </c>
-      <c r="M4" t="n">
-        <v>920.0647698886302</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7733.35806796893</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1170.916027125372</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>FINCBTXM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4378034</v>
+        <v>20263</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>87625.47016730001</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>86504.37343883088</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>29543</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>61368.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>114385</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>799137.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>TOTEXP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4556912.5</v>
+        <v>20263</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>63572.33874569413</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>61730.6804087351</v>
       </c>
       <c r="E6" t="n">
-        <v>29543</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>30759.5002</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>48609.8452</v>
       </c>
       <c r="H6" t="n">
-        <v>4940</v>
+        <v>76878.50039999999</v>
       </c>
       <c r="I6" t="n">
-        <v>3628</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>520</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>820</v>
+        <v>3120060</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>ALCBEV</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4659354</v>
+        <v>20263</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>536.9443813847901</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1200.868493836269</v>
       </c>
       <c r="E7" t="n">
-        <v>61368.8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>48609.8452</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7800</v>
+        <v>600</v>
       </c>
       <c r="I7" t="n">
-        <v>5460</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1836</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1320</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>FOOD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4760502</v>
+        <v>20263</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>9467.443715145831</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6840.518063324567</v>
       </c>
       <c r="E8" t="n">
-        <v>114385</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>76878.50039999999</v>
+        <v>4940</v>
       </c>
       <c r="G8" t="n">
-        <v>600</v>
+        <v>7800</v>
       </c>
       <c r="H8" t="n">
         <v>12220</v>
       </c>
       <c r="I8" t="n">
-        <v>8400</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3900</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2016</v>
+        <v>116532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>FDHOME</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4930511</v>
+        <v>20263</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>6595.57262004639</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>4621.348942987547</v>
       </c>
       <c r="E9" t="n">
-        <v>799137.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3120060</v>
+        <v>3628</v>
       </c>
       <c r="G9" t="n">
-        <v>42000</v>
+        <v>5460</v>
       </c>
       <c r="H9" t="n">
-        <v>116532</v>
+        <v>8400</v>
       </c>
       <c r="I9" t="n">
         <v>74204</v>
       </c>
-      <c r="J9" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FDMAP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.40793564625179</v>
+      </c>
+      <c r="D10" t="n">
+        <v>336.9270680369743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>26000</v>
       </c>
-      <c r="K9" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FDAWAY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2871.871095099442</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3779.830252419928</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>520</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1836</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I11" t="n">
         <v>78000</v>
       </c>
-      <c r="L9" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MAJAPP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C12" t="n">
+        <v>443.0933228051128</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2240.880011704004</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>83712</v>
       </c>
-      <c r="M9" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TENTRM</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C13" t="n">
+        <v>122.4426787741203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>920.0647698886302</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>48000</v>
       </c>
-      <c r="N9" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>EDUCA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1059.478458273701</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7733.35806796893</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>258000</v>
       </c>
-      <c r="O9" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ELCTRC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20263</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1525.735774564477</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1170.916027125372</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>820</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1320</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I15" t="n">
         <v>34296</v>
       </c>
     </row>
